--- a/20221224-232141-511.xlsx
+++ b/20221224-232141-511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roshangnaneswaran/Desktop/sae-bd-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF93F3E5-8E40-8544-9FBA-0B607B6481B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF883B2-1339-7145-AFB6-F0BB7F999097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
